--- a/biology/Microbiologie/Rhizobium_rhizogenes/Rhizobium_rhizogenes.xlsx
+++ b/biology/Microbiologie/Rhizobium_rhizogenes/Rhizobium_rhizogenes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhizobium rhizogenes ou Agrobacterium rhizogenes est une espèce de bactérie de la famille des Rhizobiaceae.
 Rhizobium rhizogenes est une bactérie à coloration de Gram négative tellurique (vivant dans les sols).
@@ -513,7 +525,9 @@
           <t>Hairy root disease</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette maladie se caractérise par l'apparition d'un chevelu racinaire au point d'infection par la bactérie.
 La capacité à induire la maladie est liée à la présence dans la bactérie d'un plasmide de haut poids moléculaire (ca. 300 Kb) appelé plasmide Ri (dont la structure est proche du plasmide Ti rencontré chez Agrobacterium tumefaciens), qui rend les bactéries virulentes.
